--- a/sql/815基础信息管理资源操作(1)-菜单对应的code定义.xlsx
+++ b/sql/815基础信息管理资源操作(1)-菜单对应的code定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="336">
   <si>
     <t>教育单位（学校、行政单位、事业单位）信息管理</t>
   </si>
@@ -758,6 +758,9 @@
     <t>newTeacherEntry</t>
   </si>
   <si>
+    <t>/onboarding</t>
+  </si>
+  <si>
     <t>【入职登记】</t>
   </si>
   <si>
@@ -809,6 +812,9 @@
     <t>newTeacherApproval</t>
   </si>
   <si>
+    <t>/onboarding/approve</t>
+  </si>
+  <si>
     <t>【查看】新教职工</t>
   </si>
   <si>
@@ -833,6 +839,9 @@
     <t>teacherInfo</t>
   </si>
   <si>
+    <t>/employed</t>
+  </si>
+  <si>
     <t>【查看】在职教职工信息</t>
   </si>
   <si>
@@ -878,6 +887,9 @@
     <t>teacherKeyInfo</t>
   </si>
   <si>
+    <t>/employed/approve</t>
+  </si>
+  <si>
     <t>【查看】在职教职工关键信息</t>
   </si>
   <si>
@@ -902,6 +914,9 @@
     <t>teacherBorrowOut</t>
   </si>
   <si>
+    <t>employed/borrowout</t>
+  </si>
+  <si>
     <t>发起在职教职工【借出】(系统外)</t>
   </si>
   <si>
@@ -926,6 +941,10 @@
     <t>teacherBorrowIn</t>
   </si>
   <si>
+    <t xml:space="preserve">/employed/borrowin
+</t>
+  </si>
+  <si>
     <t>【查看】在职教职工借入</t>
   </si>
   <si>
@@ -962,6 +981,9 @@
     <t>teacherTransferOut</t>
   </si>
   <si>
+    <t>/employed/transferout</t>
+  </si>
+  <si>
     <t>发起在职教职工【调出】（系统外）</t>
   </si>
   <si>
@@ -986,6 +1008,9 @@
     <t>teacherTransferIn</t>
   </si>
   <si>
+    <t>/employed/transferin</t>
+  </si>
+  <si>
     <t>发起在职教职工【调入】(系统外)</t>
   </si>
   <si>
@@ -1019,7 +1044,43 @@
     <t>teacherRetire</t>
   </si>
   <si>
+    <t>/nonemployed/retire</t>
+  </si>
+  <si>
     <t>【查看】在职教职工离退体信息</t>
+  </si>
+  <si>
+    <t>系统管理</t>
+  </si>
+  <si>
+    <t>系统配置</t>
+  </si>
+  <si>
+    <t>system_config</t>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>列表</t>
+  </si>
+  <si>
+    <t>详情</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>任务管理</t>
+  </si>
+  <si>
+    <t>task_manage</t>
+  </si>
+  <si>
+    <t>修改(启动或停止)</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1093,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1064,26 +1125,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <i/>
+      <sz val="9.8"/>
+      <color rgb="FFC77DBB"/>
+      <name val="Courier New"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9.8"/>
-      <color rgb="FFC77DBB"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
     </font>
     <font>
       <strike/>
@@ -1528,6 +1582,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1557,15 +1620,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -1711,133 +1765,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1857,36 +1911,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1896,16 +1950,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1914,25 +1974,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1941,20 +1998,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2492,7 +2546,7 @@
   <sheetPr/>
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A83" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
@@ -2521,2256 +2575,2256 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="28.95" customHeight="1" spans="1:9">
-      <c r="A2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="15"/>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:9">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:9">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:9">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" ht="15.75" spans="1:9">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" ht="15.75" spans="1:9">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" ht="15.75" spans="1:9">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" ht="15.75" spans="1:9">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="7">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:9">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7"/>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" ht="15.75" spans="1:9">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="7">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7"/>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" ht="15.75" spans="1:9">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="7">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:9">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="7">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" ht="15.75" spans="1:9">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="7">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" ht="15.75" spans="1:9">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" ht="15.75" spans="1:9">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="7">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" ht="15.75" spans="1:9">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="7">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="19" ht="13.05" customHeight="1" spans="1:9">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="15"/>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="7">
-        <v>1</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" ht="15.75" spans="1:9">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="7">
-        <v>1</v>
-      </c>
-      <c r="H20" s="34">
-        <v>1</v>
-      </c>
-      <c r="I20" s="34">
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="35">
+        <v>1</v>
+      </c>
+      <c r="I20" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="1:9">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="7">
-        <v>1</v>
-      </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="7">
-        <v>1</v>
-      </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="35"/>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="36"/>
+      <c r="B23" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="15"/>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="7">
-        <v>1</v>
-      </c>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="35"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="F24" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="7">
-        <v>1</v>
-      </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="35"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="7">
-        <v>1</v>
-      </c>
-      <c r="H25" s="34">
-        <v>1</v>
-      </c>
-      <c r="I25" s="34">
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="35">
+        <v>1</v>
+      </c>
+      <c r="I25" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="35"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="F26" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="7">
-        <v>1</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" ht="15.75" spans="1:9">
-      <c r="A27" s="35"/>
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="36"/>
+      <c r="B27" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>55</v>
       </c>
       <c r="D27" s="15"/>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="7">
-        <v>1</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7">
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="28" ht="15.75" spans="1:9">
-      <c r="A28" s="35"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="7">
-        <v>1</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7">
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="29" ht="15.75" spans="1:9">
-      <c r="A29" s="35"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="7">
-        <v>1</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7">
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="30" ht="15.75" spans="1:9">
-      <c r="A30" s="35"/>
-      <c r="B30" s="7"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" ht="15.75" spans="1:9">
-      <c r="A31" s="35"/>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="36"/>
+      <c r="B31" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="38"/>
+      <c r="D31" s="22"/>
       <c r="E31" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7">
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="32" ht="15.75" spans="1:9">
-      <c r="A32" s="35"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="39"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="7">
-        <v>1</v>
-      </c>
-      <c r="H32" s="7">
-        <v>1</v>
-      </c>
-      <c r="I32" s="7">
+      <c r="G32" s="6">
+        <v>1</v>
+      </c>
+      <c r="H32" s="6">
+        <v>1</v>
+      </c>
+      <c r="I32" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="35"/>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="36"/>
+      <c r="B33" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>65</v>
       </c>
       <c r="D33" s="15"/>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="G33" s="7">
-        <v>1</v>
-      </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
     </row>
     <row r="34" ht="15.75" spans="1:9">
-      <c r="A34" s="35"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="7">
-        <v>1</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+      <c r="G34" s="6">
+        <v>1</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" ht="15.75" spans="1:9">
-      <c r="A35" s="35"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="7">
-        <v>1</v>
-      </c>
-      <c r="H35" s="7">
-        <v>1</v>
-      </c>
-      <c r="I35" s="7">
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
+      <c r="H35" s="6">
+        <v>1</v>
+      </c>
+      <c r="I35" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="36" ht="15.75" spans="1:9">
-      <c r="A36" s="35"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="7">
-        <v>1</v>
-      </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
+      <c r="G36" s="6">
+        <v>1</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="15"/>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="32" t="s">
+      <c r="F37" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="7">
-        <v>1</v>
-      </c>
-      <c r="H37" s="7">
-        <v>1</v>
-      </c>
-      <c r="I37" s="7">
+      <c r="G37" s="6">
+        <v>1</v>
+      </c>
+      <c r="H37" s="6">
+        <v>1</v>
+      </c>
+      <c r="I37" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="32" t="s">
+      <c r="E38" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="32" t="s">
+      <c r="F38" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7">
-        <v>1</v>
-      </c>
-      <c r="I38" s="7">
+      <c r="G38" s="6"/>
+      <c r="H38" s="6">
+        <v>1</v>
+      </c>
+      <c r="I38" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="39" ht="15.75" spans="1:9">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="32" t="s">
+      <c r="E39" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="G39" s="7">
-        <v>1</v>
-      </c>
-      <c r="H39" s="7">
-        <v>1</v>
-      </c>
-      <c r="I39" s="7"/>
+      <c r="G39" s="6">
+        <v>1</v>
+      </c>
+      <c r="H39" s="6">
+        <v>1</v>
+      </c>
+      <c r="I39" s="6"/>
     </row>
     <row r="40" ht="15.75" spans="1:9">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
-      <c r="E40" s="32" t="s">
+      <c r="E40" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7">
-        <v>1</v>
-      </c>
-      <c r="I40" s="7">
+      <c r="G40" s="6"/>
+      <c r="H40" s="6">
+        <v>1</v>
+      </c>
+      <c r="I40" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="41" ht="15.75" spans="1:9">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
-      <c r="E41" s="32" t="s">
+      <c r="E41" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7">
-        <v>1</v>
-      </c>
-      <c r="I41" s="7">
+      <c r="G41" s="6"/>
+      <c r="H41" s="6">
+        <v>1</v>
+      </c>
+      <c r="I41" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="42" ht="15.75" spans="1:9">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7" t="s">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>83</v>
       </c>
       <c r="D42" s="15"/>
-      <c r="E42" s="32" t="s">
+      <c r="E42" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="7">
-        <v>1</v>
-      </c>
-      <c r="H42" s="7">
-        <v>1</v>
-      </c>
-      <c r="I42" s="7">
+      <c r="G42" s="6">
+        <v>1</v>
+      </c>
+      <c r="H42" s="6">
+        <v>1</v>
+      </c>
+      <c r="I42" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="43" ht="15.75" spans="1:9">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
-      <c r="E43" s="32" t="s">
+      <c r="E43" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G43" s="7">
-        <v>1</v>
-      </c>
-      <c r="H43" s="7">
-        <v>1</v>
-      </c>
-      <c r="I43" s="7"/>
+      <c r="G43" s="6">
+        <v>1</v>
+      </c>
+      <c r="H43" s="6">
+        <v>1</v>
+      </c>
+      <c r="I43" s="6"/>
     </row>
     <row r="44" ht="15.75" spans="1:9">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
-      <c r="E44" s="32" t="s">
+      <c r="E44" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="G44" s="7">
-        <v>1</v>
-      </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
+      <c r="G44" s="6">
+        <v>1</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
     </row>
     <row r="45" ht="15.75" spans="1:9">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
-      <c r="E45" s="32" t="s">
+      <c r="E45" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F45" s="26" t="s">
+      <c r="F45" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7">
-        <v>1</v>
-      </c>
-      <c r="I45" s="7">
+      <c r="G45" s="6"/>
+      <c r="H45" s="6">
+        <v>1</v>
+      </c>
+      <c r="I45" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="46" ht="15.75" spans="1:9">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
-      <c r="E46" s="32" t="s">
+      <c r="E46" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F46" s="26" t="s">
+      <c r="F46" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7">
-        <v>1</v>
-      </c>
-      <c r="I46" s="7">
+      <c r="G46" s="6"/>
+      <c r="H46" s="6">
+        <v>1</v>
+      </c>
+      <c r="I46" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="47" ht="15.75" spans="1:9">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7" t="s">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6" t="s">
         <v>87</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>88</v>
       </c>
       <c r="D47" s="15"/>
-      <c r="E47" s="32" t="s">
+      <c r="E47" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="F47" s="26" t="s">
+      <c r="F47" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G47" s="7">
-        <v>1</v>
-      </c>
-      <c r="H47" s="7">
-        <v>1</v>
-      </c>
-      <c r="I47" s="7">
+      <c r="G47" s="6">
+        <v>1</v>
+      </c>
+      <c r="H47" s="6">
+        <v>1</v>
+      </c>
+      <c r="I47" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="48" ht="15.75" spans="1:9">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
-      <c r="E48" s="32" t="s">
+      <c r="E48" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="F48" s="26" t="s">
+      <c r="F48" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G48" s="7">
-        <v>1</v>
-      </c>
-      <c r="H48" s="7">
-        <v>1</v>
-      </c>
-      <c r="I48" s="7"/>
+      <c r="G48" s="6">
+        <v>1</v>
+      </c>
+      <c r="H48" s="6">
+        <v>1</v>
+      </c>
+      <c r="I48" s="6"/>
     </row>
     <row r="49" ht="15.75" spans="1:9">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
-      <c r="E49" s="32" t="s">
+      <c r="E49" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="F49" s="26" t="s">
+      <c r="F49" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="G49" s="7">
-        <v>1</v>
-      </c>
-      <c r="H49" s="7">
-        <v>1</v>
-      </c>
-      <c r="I49" s="7"/>
+      <c r="G49" s="6">
+        <v>1</v>
+      </c>
+      <c r="H49" s="6">
+        <v>1</v>
+      </c>
+      <c r="I49" s="6"/>
     </row>
     <row r="50" ht="15.75" spans="1:9">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
-      <c r="E50" s="32" t="s">
+      <c r="E50" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F50" s="26" t="s">
+      <c r="F50" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7">
-        <v>1</v>
-      </c>
-      <c r="I50" s="7">
+      <c r="G50" s="6"/>
+      <c r="H50" s="6">
+        <v>1</v>
+      </c>
+      <c r="I50" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="51" ht="15.75" spans="1:9">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
-      <c r="E51" s="32" t="s">
+      <c r="E51" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F51" s="26" t="s">
+      <c r="F51" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7">
-        <v>1</v>
-      </c>
-      <c r="I51" s="7">
+      <c r="G51" s="6"/>
+      <c r="H51" s="6">
+        <v>1</v>
+      </c>
+      <c r="I51" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="52" ht="15.75" spans="1:9">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D52" s="15"/>
-      <c r="E52" s="32" t="s">
+      <c r="E52" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F52" s="26" t="s">
+      <c r="F52" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="7">
-        <v>1</v>
-      </c>
-      <c r="H52" s="7">
-        <v>1</v>
-      </c>
-      <c r="I52" s="7">
+      <c r="G52" s="6">
+        <v>1</v>
+      </c>
+      <c r="H52" s="6">
+        <v>1</v>
+      </c>
+      <c r="I52" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="53" ht="15.75" spans="1:9">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
-      <c r="E53" s="32" t="s">
+      <c r="E53" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="F53" s="26" t="s">
+      <c r="F53" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G53" s="7">
-        <v>1</v>
-      </c>
-      <c r="H53" s="7">
-        <v>1</v>
-      </c>
-      <c r="I53" s="7"/>
+      <c r="G53" s="6">
+        <v>1</v>
+      </c>
+      <c r="H53" s="6">
+        <v>1</v>
+      </c>
+      <c r="I53" s="6"/>
     </row>
     <row r="54" ht="15.75" spans="1:9">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
-      <c r="E54" s="32" t="s">
+      <c r="E54" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="F54" s="26" t="s">
+      <c r="F54" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="G54" s="7">
-        <v>1</v>
-      </c>
-      <c r="H54" s="7">
-        <v>1</v>
-      </c>
-      <c r="I54" s="7"/>
+      <c r="G54" s="6">
+        <v>1</v>
+      </c>
+      <c r="H54" s="6">
+        <v>1</v>
+      </c>
+      <c r="I54" s="6"/>
     </row>
     <row r="55" ht="15.75" spans="1:9">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
-      <c r="E55" s="32" t="s">
+      <c r="E55" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="F55" s="26" t="s">
+      <c r="F55" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7">
-        <v>1</v>
-      </c>
-      <c r="I55" s="7">
+      <c r="G55" s="6"/>
+      <c r="H55" s="6">
+        <v>1</v>
+      </c>
+      <c r="I55" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="56" ht="15.75" spans="1:9">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
-      <c r="E56" s="32" t="s">
+      <c r="E56" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="F56" s="26" t="s">
+      <c r="F56" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7">
-        <v>1</v>
-      </c>
-      <c r="I56" s="7">
+      <c r="G56" s="6"/>
+      <c r="H56" s="6">
+        <v>1</v>
+      </c>
+      <c r="I56" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="57" ht="15.75" spans="1:9">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7" t="s">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>96</v>
       </c>
       <c r="D57" s="15"/>
-      <c r="E57" s="32" t="s">
+      <c r="E57" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="F57" s="26" t="s">
+      <c r="F57" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G57" s="7">
-        <v>1</v>
-      </c>
-      <c r="H57" s="7">
-        <v>1</v>
-      </c>
-      <c r="I57" s="7">
+      <c r="G57" s="6">
+        <v>1</v>
+      </c>
+      <c r="H57" s="6">
+        <v>1</v>
+      </c>
+      <c r="I57" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="58" ht="15.75" spans="1:9">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
-      <c r="E58" s="32" t="s">
+      <c r="E58" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="F58" s="26" t="s">
+      <c r="F58" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G58" s="7">
-        <v>1</v>
-      </c>
-      <c r="H58" s="7">
-        <v>1</v>
-      </c>
-      <c r="I58" s="7"/>
+      <c r="G58" s="6">
+        <v>1</v>
+      </c>
+      <c r="H58" s="6">
+        <v>1</v>
+      </c>
+      <c r="I58" s="6"/>
     </row>
     <row r="59" ht="15.75" spans="1:9">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
-      <c r="E59" s="32" t="s">
+      <c r="E59" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="F59" s="26" t="s">
+      <c r="F59" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="G59" s="7">
-        <v>1</v>
-      </c>
-      <c r="H59" s="7">
-        <v>1</v>
-      </c>
-      <c r="I59" s="7"/>
+      <c r="G59" s="6">
+        <v>1</v>
+      </c>
+      <c r="H59" s="6">
+        <v>1</v>
+      </c>
+      <c r="I59" s="6"/>
     </row>
     <row r="60" ht="15.75" spans="1:9">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
-      <c r="E60" s="32" t="s">
+      <c r="E60" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="F60" s="26" t="s">
+      <c r="F60" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7">
-        <v>1</v>
-      </c>
-      <c r="I60" s="7">
+      <c r="G60" s="6"/>
+      <c r="H60" s="6">
+        <v>1</v>
+      </c>
+      <c r="I60" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="61" ht="15.75" spans="1:9">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
-      <c r="E61" s="32" t="s">
+      <c r="E61" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="F61" s="26" t="s">
+      <c r="F61" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7">
-        <v>1</v>
-      </c>
-      <c r="I61" s="7">
+      <c r="G61" s="6"/>
+      <c r="H61" s="6">
+        <v>1</v>
+      </c>
+      <c r="I61" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="62" ht="15.75" spans="1:9">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7" t="s">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6" t="s">
         <v>100</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>101</v>
       </c>
       <c r="D62" s="15"/>
-      <c r="E62" s="32" t="s">
+      <c r="E62" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="F62" s="26" t="s">
+      <c r="F62" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G62" s="7">
-        <v>1</v>
-      </c>
-      <c r="H62" s="7">
-        <v>1</v>
-      </c>
-      <c r="I62" s="7">
+      <c r="G62" s="6">
+        <v>1</v>
+      </c>
+      <c r="H62" s="6">
+        <v>1</v>
+      </c>
+      <c r="I62" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="63" ht="15.75" spans="1:9">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
-      <c r="E63" s="32" t="s">
+      <c r="E63" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="F63" s="26" t="s">
+      <c r="F63" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G63" s="7">
-        <v>1</v>
-      </c>
-      <c r="H63" s="7">
-        <v>1</v>
-      </c>
-      <c r="I63" s="7"/>
+      <c r="G63" s="6">
+        <v>1</v>
+      </c>
+      <c r="H63" s="6">
+        <v>1</v>
+      </c>
+      <c r="I63" s="6"/>
     </row>
     <row r="64" ht="15.75" spans="1:9">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
-      <c r="E64" s="32" t="s">
+      <c r="E64" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="F64" s="26" t="s">
+      <c r="F64" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="G64" s="7">
-        <v>1</v>
-      </c>
-      <c r="H64" s="7">
-        <v>1</v>
-      </c>
-      <c r="I64" s="7"/>
+      <c r="G64" s="6">
+        <v>1</v>
+      </c>
+      <c r="H64" s="6">
+        <v>1</v>
+      </c>
+      <c r="I64" s="6"/>
     </row>
     <row r="65" ht="15.75" spans="1:9">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
-      <c r="E65" s="32" t="s">
+      <c r="E65" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="F65" s="26" t="s">
+      <c r="F65" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7">
-        <v>1</v>
-      </c>
-      <c r="I65" s="7">
+      <c r="G65" s="6"/>
+      <c r="H65" s="6">
+        <v>1</v>
+      </c>
+      <c r="I65" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="66" ht="15.75" spans="1:9">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
-      <c r="E66" s="32" t="s">
+      <c r="E66" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="F66" s="26" t="s">
+      <c r="F66" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7">
-        <v>1</v>
-      </c>
-      <c r="I66" s="7">
+      <c r="G66" s="6"/>
+      <c r="H66" s="6">
+        <v>1</v>
+      </c>
+      <c r="I66" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="67" ht="15.75" spans="1:9">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>103</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>104</v>
       </c>
       <c r="D67" s="15"/>
-      <c r="E67" s="32" t="s">
+      <c r="E67" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="F67" s="26" t="s">
+      <c r="F67" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7">
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="68" ht="15.75" spans="1:9">
-      <c r="A68" s="23"/>
-      <c r="B68" s="7"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="6"/>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
-      <c r="E68" s="32" t="s">
+      <c r="E68" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="F68" s="26" t="s">
+      <c r="F68" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7">
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="69" ht="15.75" spans="1:9">
-      <c r="A69" s="23"/>
-      <c r="B69" s="7"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="6"/>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
-      <c r="E69" s="32" t="s">
+      <c r="E69" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="F69" s="26" t="s">
+      <c r="F69" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7">
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="70" ht="15.75" spans="1:9">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>109</v>
       </c>
       <c r="D70" s="15"/>
-      <c r="E70" s="32" t="s">
+      <c r="E70" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="F70" s="26" t="s">
+      <c r="F70" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7">
-        <v>1</v>
-      </c>
-      <c r="I70" s="7">
+      <c r="G70" s="6"/>
+      <c r="H70" s="6">
+        <v>1</v>
+      </c>
+      <c r="I70" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="71" ht="15.75" spans="1:9">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
-      <c r="E71" s="32" t="s">
+      <c r="E71" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="F71" s="26" t="s">
+      <c r="F71" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7">
-        <v>1</v>
-      </c>
-      <c r="I71" s="7">
+      <c r="G71" s="6"/>
+      <c r="H71" s="6">
+        <v>1</v>
+      </c>
+      <c r="I71" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="72" ht="15.75" spans="1:9">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
-      <c r="E72" s="32" t="s">
+      <c r="E72" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="F72" s="26" t="s">
+      <c r="F72" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G72" s="7">
-        <v>1</v>
-      </c>
-      <c r="H72" s="7">
-        <v>1</v>
-      </c>
-      <c r="I72" s="7">
+      <c r="G72" s="6">
+        <v>1</v>
+      </c>
+      <c r="H72" s="6">
+        <v>1</v>
+      </c>
+      <c r="I72" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="73" ht="15.75" spans="1:9">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
-      <c r="E73" s="32" t="s">
+      <c r="E73" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="F73" s="26" t="s">
+      <c r="F73" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G73" s="7">
-        <v>1</v>
-      </c>
-      <c r="H73" s="7">
-        <v>1</v>
-      </c>
-      <c r="I73" s="7"/>
+      <c r="G73" s="6">
+        <v>1</v>
+      </c>
+      <c r="H73" s="6">
+        <v>1</v>
+      </c>
+      <c r="I73" s="6"/>
     </row>
     <row r="74" ht="15.75" spans="1:9">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
-      <c r="E74" s="32" t="s">
+      <c r="E74" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="F74" s="26" t="s">
+      <c r="F74" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G74" s="7">
-        <v>1</v>
-      </c>
-      <c r="H74" s="7">
-        <v>1</v>
-      </c>
-      <c r="I74" s="7"/>
+      <c r="G74" s="6">
+        <v>1</v>
+      </c>
+      <c r="H74" s="6">
+        <v>1</v>
+      </c>
+      <c r="I74" s="6"/>
     </row>
     <row r="75" ht="15.75" spans="1:9">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
-      <c r="E75" s="32" t="s">
+      <c r="E75" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="F75" s="26" t="s">
+      <c r="F75" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="G75" s="7">
-        <v>1</v>
-      </c>
-      <c r="H75" s="7">
-        <v>1</v>
-      </c>
-      <c r="I75" s="7"/>
+      <c r="G75" s="6">
+        <v>1</v>
+      </c>
+      <c r="H75" s="6">
+        <v>1</v>
+      </c>
+      <c r="I75" s="6"/>
     </row>
     <row r="76" ht="15.75" spans="1:9">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
-      <c r="E76" s="32" t="s">
+      <c r="E76" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="F76" s="26" t="s">
+      <c r="F76" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G76" s="7">
-        <v>1</v>
-      </c>
-      <c r="H76" s="7">
-        <v>1</v>
-      </c>
-      <c r="I76" s="7"/>
+      <c r="G76" s="6">
+        <v>1</v>
+      </c>
+      <c r="H76" s="6">
+        <v>1</v>
+      </c>
+      <c r="I76" s="6"/>
     </row>
     <row r="77" ht="15.75" spans="1:9">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>119</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>120</v>
       </c>
       <c r="D77" s="15"/>
-      <c r="E77" s="32" t="s">
+      <c r="E77" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="F77" s="26" t="s">
+      <c r="F77" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G77" s="7">
-        <v>1</v>
-      </c>
-      <c r="H77" s="7">
-        <v>1</v>
-      </c>
-      <c r="I77" s="7">
+      <c r="G77" s="6">
+        <v>1</v>
+      </c>
+      <c r="H77" s="6">
+        <v>1</v>
+      </c>
+      <c r="I77" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="78" ht="15.75" spans="1:9">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
       <c r="C78" s="17"/>
       <c r="D78" s="17"/>
-      <c r="E78" s="32" t="s">
+      <c r="E78" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="F78" s="26" t="s">
+      <c r="F78" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7">
-        <v>1</v>
-      </c>
-      <c r="I78" s="7">
+      <c r="G78" s="6"/>
+      <c r="H78" s="6">
+        <v>1</v>
+      </c>
+      <c r="I78" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="79" ht="15.75" spans="1:9">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
       <c r="C79" s="17"/>
       <c r="D79" s="17"/>
-      <c r="E79" s="32" t="s">
+      <c r="E79" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="F79" s="26" t="s">
+      <c r="F79" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G79" s="7">
-        <v>1</v>
-      </c>
-      <c r="H79" s="7">
-        <v>1</v>
-      </c>
-      <c r="I79" s="7">
+      <c r="G79" s="6">
+        <v>1</v>
+      </c>
+      <c r="H79" s="6">
+        <v>1</v>
+      </c>
+      <c r="I79" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="80" ht="15.75" spans="1:9">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
-      <c r="E80" s="32" t="s">
+      <c r="E80" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="F80" s="26" t="s">
+      <c r="F80" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="G80" s="7">
-        <v>1</v>
-      </c>
-      <c r="H80" s="7">
-        <v>1</v>
-      </c>
-      <c r="I80" s="7"/>
+      <c r="G80" s="6">
+        <v>1</v>
+      </c>
+      <c r="H80" s="6">
+        <v>1</v>
+      </c>
+      <c r="I80" s="6"/>
     </row>
     <row r="81" ht="15.75" spans="1:9">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
       <c r="C81" s="16"/>
       <c r="D81" s="16"/>
-      <c r="E81" s="32" t="s">
+      <c r="E81" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="F81" s="26" t="s">
+      <c r="F81" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7">
-        <v>1</v>
-      </c>
-      <c r="I81" s="7">
+      <c r="G81" s="6"/>
+      <c r="H81" s="6">
+        <v>1</v>
+      </c>
+      <c r="I81" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="82" ht="15.75" spans="1:9">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7" t="s">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6" t="s">
         <v>123</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>124</v>
       </c>
       <c r="D82" s="15"/>
-      <c r="E82" s="32" t="s">
+      <c r="E82" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="F82" s="26" t="s">
+      <c r="F82" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G82" s="7">
-        <v>1</v>
-      </c>
-      <c r="H82" s="7">
-        <v>1</v>
-      </c>
-      <c r="I82" s="7">
+      <c r="G82" s="6">
+        <v>1</v>
+      </c>
+      <c r="H82" s="6">
+        <v>1</v>
+      </c>
+      <c r="I82" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="83" ht="15.75" spans="1:9">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
-      <c r="E83" s="32" t="s">
+      <c r="E83" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="F83" s="26" t="s">
+      <c r="F83" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7">
-        <v>1</v>
-      </c>
-      <c r="I83" s="7">
+      <c r="G83" s="6"/>
+      <c r="H83" s="6">
+        <v>1</v>
+      </c>
+      <c r="I83" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="84" ht="15.75" spans="1:9">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
-      <c r="E84" s="32" t="s">
+      <c r="E84" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="F84" s="26" t="s">
+      <c r="F84" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G84" s="7">
-        <v>1</v>
-      </c>
-      <c r="H84" s="7">
-        <v>1</v>
-      </c>
-      <c r="I84" s="7">
+      <c r="G84" s="6">
+        <v>1</v>
+      </c>
+      <c r="H84" s="6">
+        <v>1</v>
+      </c>
+      <c r="I84" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="85" ht="15.75" spans="1:9">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
       <c r="C85" s="17"/>
       <c r="D85" s="17"/>
-      <c r="E85" s="32" t="s">
+      <c r="E85" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="F85" s="26" t="s">
+      <c r="F85" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="G85" s="7">
-        <v>1</v>
-      </c>
-      <c r="H85" s="7">
-        <v>1</v>
-      </c>
-      <c r="I85" s="7"/>
+      <c r="G85" s="6">
+        <v>1</v>
+      </c>
+      <c r="H85" s="6">
+        <v>1</v>
+      </c>
+      <c r="I85" s="6"/>
     </row>
     <row r="86" ht="15.75" spans="1:9">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
       <c r="C86" s="16"/>
       <c r="D86" s="16"/>
-      <c r="E86" s="32" t="s">
+      <c r="E86" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="F86" s="26" t="s">
+      <c r="F86" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7">
-        <v>1</v>
-      </c>
-      <c r="I86" s="7">
+      <c r="G86" s="6"/>
+      <c r="H86" s="6">
+        <v>1</v>
+      </c>
+      <c r="I86" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="87" ht="15.75" spans="1:9">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7" t="s">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6" t="s">
         <v>125</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>126</v>
       </c>
       <c r="D87" s="15"/>
-      <c r="E87" s="32" t="s">
+      <c r="E87" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="F87" s="26" t="s">
+      <c r="F87" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G87" s="7">
-        <v>1</v>
-      </c>
-      <c r="H87" s="7">
-        <v>1</v>
-      </c>
-      <c r="I87" s="7">
+      <c r="G87" s="6">
+        <v>1</v>
+      </c>
+      <c r="H87" s="6">
+        <v>1</v>
+      </c>
+      <c r="I87" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="88" ht="15.75" spans="1:9">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
       <c r="C88" s="17"/>
       <c r="D88" s="17"/>
-      <c r="E88" s="32" t="s">
+      <c r="E88" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="F88" s="26" t="s">
+      <c r="F88" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G88" s="7">
-        <v>1</v>
-      </c>
-      <c r="H88" s="7">
-        <v>1</v>
-      </c>
-      <c r="I88" s="7">
+      <c r="G88" s="6">
+        <v>1</v>
+      </c>
+      <c r="H88" s="6">
+        <v>1</v>
+      </c>
+      <c r="I88" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="89" ht="15.75" spans="1:9">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
-      <c r="E89" s="32" t="s">
+      <c r="E89" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="F89" s="26" t="s">
+      <c r="F89" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="G89" s="7">
-        <v>1</v>
-      </c>
-      <c r="H89" s="7">
-        <v>1</v>
-      </c>
-      <c r="I89" s="7"/>
+      <c r="G89" s="6">
+        <v>1</v>
+      </c>
+      <c r="H89" s="6">
+        <v>1</v>
+      </c>
+      <c r="I89" s="6"/>
     </row>
     <row r="90" ht="15.75" spans="1:9">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
       <c r="C90" s="17"/>
       <c r="D90" s="17"/>
-      <c r="E90" s="32" t="s">
+      <c r="E90" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="F90" s="26" t="s">
+      <c r="F90" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7">
-        <v>1</v>
-      </c>
-      <c r="I90" s="7">
+      <c r="G90" s="6"/>
+      <c r="H90" s="6">
+        <v>1</v>
+      </c>
+      <c r="I90" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="91" ht="15.75" spans="1:9">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
-      <c r="E91" s="32" t="s">
+      <c r="E91" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="F91" s="26" t="s">
+      <c r="F91" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7">
-        <v>1</v>
-      </c>
-      <c r="I91" s="7">
+      <c r="G91" s="6"/>
+      <c r="H91" s="6">
+        <v>1</v>
+      </c>
+      <c r="I91" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="92" ht="15.75" spans="1:9">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C92" s="15" t="s">
         <v>128</v>
       </c>
       <c r="D92" s="15"/>
-      <c r="E92" s="32" t="s">
+      <c r="E92" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="F92" s="26" t="s">
+      <c r="F92" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7">
-        <v>1</v>
-      </c>
-      <c r="I92" s="7">
+      <c r="G92" s="6"/>
+      <c r="H92" s="6">
+        <v>1</v>
+      </c>
+      <c r="I92" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="93" ht="15.75" spans="1:9">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
-      <c r="E93" s="32" t="s">
+      <c r="E93" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="F93" s="26" t="s">
+      <c r="F93" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7">
-        <v>1</v>
-      </c>
-      <c r="I93" s="7">
+      <c r="G93" s="6"/>
+      <c r="H93" s="6">
+        <v>1</v>
+      </c>
+      <c r="I93" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="94" ht="15.75" spans="1:9">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
-      <c r="E94" s="32" t="s">
+      <c r="E94" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F94" s="26" t="s">
+      <c r="F94" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G94" s="7">
-        <v>1</v>
-      </c>
-      <c r="H94" s="7">
-        <v>1</v>
-      </c>
-      <c r="I94" s="7">
+      <c r="G94" s="6">
+        <v>1</v>
+      </c>
+      <c r="H94" s="6">
+        <v>1</v>
+      </c>
+      <c r="I94" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="95" ht="15.75" spans="1:9">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
-      <c r="E95" s="32" t="s">
+      <c r="E95" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="F95" s="26" t="s">
+      <c r="F95" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G95" s="7">
-        <v>1</v>
-      </c>
-      <c r="H95" s="7">
-        <v>1</v>
-      </c>
-      <c r="I95" s="7"/>
+      <c r="G95" s="6">
+        <v>1</v>
+      </c>
+      <c r="H95" s="6">
+        <v>1</v>
+      </c>
+      <c r="I95" s="6"/>
     </row>
     <row r="96" ht="15.75" spans="1:9">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
-      <c r="E96" s="32" t="s">
+      <c r="E96" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="F96" s="26" t="s">
+      <c r="F96" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G96" s="7">
-        <v>1</v>
-      </c>
-      <c r="H96" s="7">
-        <v>1</v>
-      </c>
-      <c r="I96" s="7"/>
+      <c r="G96" s="6">
+        <v>1</v>
+      </c>
+      <c r="H96" s="6">
+        <v>1</v>
+      </c>
+      <c r="I96" s="6"/>
     </row>
     <row r="97" ht="15.75" spans="1:9">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
-      <c r="E97" s="32" t="s">
+      <c r="E97" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="F97" s="26" t="s">
+      <c r="F97" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="G97" s="7">
-        <v>1</v>
-      </c>
-      <c r="H97" s="7">
-        <v>1</v>
-      </c>
-      <c r="I97" s="7"/>
+      <c r="G97" s="6">
+        <v>1</v>
+      </c>
+      <c r="H97" s="6">
+        <v>1</v>
+      </c>
+      <c r="I97" s="6"/>
     </row>
     <row r="98" ht="15.75" spans="1:9">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
       <c r="C98" s="16"/>
       <c r="D98" s="16"/>
-      <c r="E98" s="32" t="s">
+      <c r="E98" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="F98" s="26" t="s">
+      <c r="F98" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G98" s="7">
-        <v>1</v>
-      </c>
-      <c r="H98" s="7">
-        <v>1</v>
-      </c>
-      <c r="I98" s="7"/>
+      <c r="G98" s="6">
+        <v>1</v>
+      </c>
+      <c r="H98" s="6">
+        <v>1</v>
+      </c>
+      <c r="I98" s="6"/>
     </row>
     <row r="99" ht="15.75" spans="1:9">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="6" t="s">
         <v>137</v>
       </c>
       <c r="C99" s="15" t="s">
         <v>138</v>
       </c>
       <c r="D99" s="15"/>
-      <c r="E99" s="32" t="s">
+      <c r="E99" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F99" s="26" t="s">
+      <c r="F99" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G99" s="7">
-        <v>1</v>
-      </c>
-      <c r="H99" s="7">
-        <v>1</v>
-      </c>
-      <c r="I99" s="7">
+      <c r="G99" s="6">
+        <v>1</v>
+      </c>
+      <c r="H99" s="6">
+        <v>1</v>
+      </c>
+      <c r="I99" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="100" ht="15.75" spans="1:9">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
-      <c r="E100" s="32" t="s">
+      <c r="E100" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="F100" s="26" t="s">
+      <c r="F100" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7">
-        <v>1</v>
-      </c>
-      <c r="I100" s="7">
+      <c r="G100" s="6"/>
+      <c r="H100" s="6">
+        <v>1</v>
+      </c>
+      <c r="I100" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="101" ht="15.75" spans="1:9">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
       <c r="C101" s="17"/>
       <c r="D101" s="17"/>
-      <c r="E101" s="32" t="s">
+      <c r="E101" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="F101" s="26" t="s">
+      <c r="F101" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G101" s="7">
-        <v>1</v>
-      </c>
-      <c r="H101" s="7">
-        <v>1</v>
-      </c>
-      <c r="I101" s="7">
+      <c r="G101" s="6">
+        <v>1</v>
+      </c>
+      <c r="H101" s="6">
+        <v>1</v>
+      </c>
+      <c r="I101" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="102" ht="15.75" spans="1:9">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
-      <c r="E102" s="32" t="s">
+      <c r="E102" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="F102" s="26" t="s">
+      <c r="F102" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="G102" s="7">
-        <v>1</v>
-      </c>
-      <c r="H102" s="7">
-        <v>1</v>
-      </c>
-      <c r="I102" s="7"/>
+      <c r="G102" s="6">
+        <v>1</v>
+      </c>
+      <c r="H102" s="6">
+        <v>1</v>
+      </c>
+      <c r="I102" s="6"/>
     </row>
     <row r="103" ht="15.75" spans="1:9">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
-      <c r="E103" s="32" t="s">
+      <c r="E103" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="F103" s="26" t="s">
+      <c r="F103" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7">
-        <v>1</v>
-      </c>
-      <c r="I103" s="7">
+      <c r="G103" s="6"/>
+      <c r="H103" s="6">
+        <v>1</v>
+      </c>
+      <c r="I103" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="104" ht="15.75" spans="1:9">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7" t="s">
+      <c r="A104" s="6"/>
+      <c r="B104" s="6" t="s">
         <v>141</v>
       </c>
       <c r="C104" s="15" t="s">
         <v>142</v>
       </c>
       <c r="D104" s="15"/>
-      <c r="E104" s="32" t="s">
+      <c r="E104" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F104" s="26" t="s">
+      <c r="F104" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G104" s="7">
-        <v>1</v>
-      </c>
-      <c r="H104" s="7">
-        <v>1</v>
-      </c>
-      <c r="I104" s="7">
+      <c r="G104" s="6">
+        <v>1</v>
+      </c>
+      <c r="H104" s="6">
+        <v>1</v>
+      </c>
+      <c r="I104" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="105" ht="15.75" spans="1:9">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
       <c r="C105" s="17"/>
       <c r="D105" s="17"/>
-      <c r="E105" s="32" t="s">
+      <c r="E105" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="F105" s="26" t="s">
+      <c r="F105" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7">
-        <v>1</v>
-      </c>
-      <c r="I105" s="7">
+      <c r="G105" s="6"/>
+      <c r="H105" s="6">
+        <v>1</v>
+      </c>
+      <c r="I105" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="106" ht="15.75" spans="1:9">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
-      <c r="E106" s="32" t="s">
+      <c r="E106" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="F106" s="26" t="s">
+      <c r="F106" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G106" s="7">
-        <v>1</v>
-      </c>
-      <c r="H106" s="7">
-        <v>1</v>
-      </c>
-      <c r="I106" s="7">
+      <c r="G106" s="6">
+        <v>1</v>
+      </c>
+      <c r="H106" s="6">
+        <v>1</v>
+      </c>
+      <c r="I106" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="107" ht="15.75" spans="1:9">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
       <c r="C107" s="17"/>
       <c r="D107" s="17"/>
-      <c r="E107" s="32" t="s">
+      <c r="E107" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="F107" s="26" t="s">
+      <c r="F107" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="G107" s="7">
-        <v>1</v>
-      </c>
-      <c r="H107" s="7">
-        <v>1</v>
-      </c>
-      <c r="I107" s="7"/>
+      <c r="G107" s="6">
+        <v>1</v>
+      </c>
+      <c r="H107" s="6">
+        <v>1</v>
+      </c>
+      <c r="I107" s="6"/>
     </row>
     <row r="108" ht="15.75" spans="1:9">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
       <c r="C108" s="16"/>
       <c r="D108" s="16"/>
-      <c r="E108" s="32" t="s">
+      <c r="E108" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="F108" s="26" t="s">
+      <c r="F108" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7">
-        <v>1</v>
-      </c>
-      <c r="I108" s="7">
+      <c r="G108" s="6"/>
+      <c r="H108" s="6">
+        <v>1</v>
+      </c>
+      <c r="I108" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="109" ht="15.75" spans="1:9">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7" t="s">
+      <c r="A109" s="6"/>
+      <c r="B109" s="6" t="s">
         <v>143</v>
       </c>
       <c r="C109" s="15" t="s">
         <v>144</v>
       </c>
       <c r="D109" s="15"/>
-      <c r="E109" s="32" t="s">
+      <c r="E109" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F109" s="26" t="s">
+      <c r="F109" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G109" s="7">
-        <v>1</v>
-      </c>
-      <c r="H109" s="7">
-        <v>1</v>
-      </c>
-      <c r="I109" s="7">
+      <c r="G109" s="6">
+        <v>1</v>
+      </c>
+      <c r="H109" s="6">
+        <v>1</v>
+      </c>
+      <c r="I109" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="110" ht="15.75" spans="1:9">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
-      <c r="E110" s="32" t="s">
+      <c r="E110" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="F110" s="26" t="s">
+      <c r="F110" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G110" s="7">
-        <v>1</v>
-      </c>
-      <c r="H110" s="7">
-        <v>1</v>
-      </c>
-      <c r="I110" s="7">
+      <c r="G110" s="6">
+        <v>1</v>
+      </c>
+      <c r="H110" s="6">
+        <v>1</v>
+      </c>
+      <c r="I110" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="111" ht="15.75" spans="1:9">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
-      <c r="E111" s="32" t="s">
+      <c r="E111" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="F111" s="26" t="s">
+      <c r="F111" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G111" s="7">
-        <v>1</v>
-      </c>
-      <c r="H111" s="7">
-        <v>1</v>
-      </c>
-      <c r="I111" s="7"/>
+      <c r="G111" s="6">
+        <v>1</v>
+      </c>
+      <c r="H111" s="6">
+        <v>1</v>
+      </c>
+      <c r="I111" s="6"/>
     </row>
     <row r="112" ht="15.75" spans="1:9">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
-      <c r="E112" s="32" t="s">
+      <c r="E112" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="F112" s="26" t="s">
+      <c r="F112" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7">
-        <v>1</v>
-      </c>
-      <c r="I112" s="7">
+      <c r="G112" s="6"/>
+      <c r="H112" s="6">
+        <v>1</v>
+      </c>
+      <c r="I112" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="113" ht="15.75" spans="1:9">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
-      <c r="E113" s="32" t="s">
+      <c r="E113" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="F113" s="26" t="s">
+      <c r="F113" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7">
-        <v>1</v>
-      </c>
-      <c r="I113" s="7">
+      <c r="G113" s="6"/>
+      <c r="H113" s="6">
+        <v>1</v>
+      </c>
+      <c r="I113" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4865,8 +4919,8 @@
   <sheetPr/>
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21666666666667" defaultRowHeight="16.8" customHeight="1"/>
@@ -4875,7 +4929,7 @@
     <col min="2" max="3" width="20.2166666666667" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.5583333333333" style="2" customWidth="1"/>
     <col min="5" max="5" width="37.5583333333333" customWidth="1"/>
-    <col min="6" max="6" width="37.7666666666667" customWidth="1"/>
+    <col min="6" max="6" width="37.775" customWidth="1"/>
     <col min="7" max="7" width="24.4416666666667" customWidth="1"/>
     <col min="8" max="8" width="22.6666666666667" customWidth="1"/>
     <col min="9" max="10" width="21.1083333333333" customWidth="1"/>
@@ -4901,868 +4955,868 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="25" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="25" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="25" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="25" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7">
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="25" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="25" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="7">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="25" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="30" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="7">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="25" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="7">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="25" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="7">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="25" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7">
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25" t="s">
+      <c r="D17" s="19"/>
+      <c r="E17" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="G17" s="7">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" customHeight="1" spans="1:9">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="25" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="G18" s="7">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" customHeight="1" spans="1:9">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="25" t="s">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="G19" s="7">
-        <v>1</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="25" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="G20" s="7">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="25" t="s">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="G21" s="7">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="25" t="s">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="G22" s="7">
-        <v>1</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" customHeight="1" spans="1:9">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23" t="s">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="7">
-        <v>1</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="25" t="s">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="7">
-        <v>1</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1</v>
-      </c>
-      <c r="I24" s="7">
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:9">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="25" t="s">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="G25" s="7">
-        <v>1</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="25" t="s">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="7">
-        <v>1</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" customHeight="1" spans="1:9">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="25" t="s">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="7">
-        <v>1</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" customHeight="1" spans="1:9">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23" t="s">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25" t="s">
+      <c r="D28" s="19"/>
+      <c r="E28" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="7">
-        <v>1</v>
-      </c>
-      <c r="H28" s="7">
-        <v>1</v>
-      </c>
-      <c r="I28" s="7">
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1</v>
+      </c>
+      <c r="I28" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:9">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="25" t="s">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="7">
-        <v>1</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="25" t="s">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="G30" s="7">
-        <v>1</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="G30" s="6">
+        <v>1</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" ht="37.8" customHeight="1" spans="1:9">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="25" t="s">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6">
+        <v>1</v>
+      </c>
+      <c r="I31" s="6"/>
     </row>
     <row r="32" ht="38.4" customHeight="1" spans="1:9">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="25" t="s">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7">
-        <v>1</v>
-      </c>
-      <c r="I32" s="7"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6">
+        <v>1</v>
+      </c>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" customHeight="1" spans="1:9">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23" t="s">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="25" t="s">
+      <c r="D33" s="19"/>
+      <c r="E33" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="7">
-        <v>1</v>
-      </c>
-      <c r="H33" s="7">
-        <v>1</v>
-      </c>
-      <c r="I33" s="7">
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="H33" s="6">
+        <v>1</v>
+      </c>
+      <c r="I33" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:9">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="25" t="s">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="G34" s="7">
-        <v>1</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+      <c r="G34" s="6">
+        <v>1</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" customHeight="1" spans="1:9">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="25" t="s">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="G35" s="7">
-        <v>1</v>
-      </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
     </row>
     <row r="36" customHeight="1" spans="1:9">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="25" t="s">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G36" s="7">
-        <v>1</v>
-      </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
+      <c r="G36" s="6">
+        <v>1</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
     </row>
     <row r="37" customHeight="1" spans="1:9">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="25" t="s">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G37" s="7">
-        <v>1</v>
-      </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
+      <c r="G37" s="6">
+        <v>1</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
     </row>
     <row r="38" customHeight="1" spans="1:9">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="25" t="s">
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="F38" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
     </row>
     <row r="39" customHeight="1" spans="1:9">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23" t="s">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="25" t="s">
+      <c r="D39" s="19"/>
+      <c r="E39" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="7">
-        <v>1</v>
-      </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="G39" s="6">
+        <v>1</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
     </row>
     <row r="40" customHeight="1" spans="1:9">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="25" t="s">
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="G40" s="7">
-        <v>1</v>
-      </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
+      <c r="G40" s="6">
+        <v>1</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
     </row>
     <row r="41" customHeight="1" spans="1:9">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="25" t="s">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="7">
-        <v>1</v>
-      </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
+      <c r="G41" s="6">
+        <v>1</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
     </row>
     <row r="42" customHeight="1" spans="1:9">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="25" t="s">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G42" s="7">
-        <v>1</v>
-      </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
+      <c r="G42" s="6">
+        <v>1</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
     </row>
     <row r="43" customHeight="1" spans="1:9">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="25" t="s">
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F43" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="G43" s="7">
-        <v>1</v>
-      </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
+      <c r="G43" s="6">
+        <v>1</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
     </row>
     <row r="44" customHeight="1" spans="1:9">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="D44" s="24"/>
-      <c r="E44" s="25" t="s">
+      <c r="D44" s="19"/>
+      <c r="E44" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F44" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="G44" s="7">
-        <v>1</v>
-      </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
+      <c r="G44" s="6">
+        <v>1</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
     </row>
     <row r="45" customHeight="1" spans="1:9">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="25" t="s">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="G45" s="7">
-        <v>1</v>
-      </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
+      <c r="G45" s="6">
+        <v>1</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
     </row>
     <row r="46" customHeight="1" spans="1:9">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="25" t="s">
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="F46" s="25" t="s">
+      <c r="F46" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="G46" s="7">
-        <v>1</v>
-      </c>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
+      <c r="G46" s="6">
+        <v>1</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
     </row>
     <row r="47" customHeight="1" spans="1:9">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="25" t="s">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="F47" s="26" t="s">
+      <c r="F47" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G47" s="7">
-        <v>1</v>
-      </c>
-      <c r="H47" s="7">
-        <v>1</v>
-      </c>
-      <c r="I47" s="7">
+      <c r="G47" s="6">
+        <v>1</v>
+      </c>
+      <c r="H47" s="6">
+        <v>1</v>
+      </c>
+      <c r="I47" s="6">
         <v>1</v>
       </c>
     </row>
@@ -5808,10 +5862,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="B50" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21666666666667" defaultRowHeight="13.5"/>
@@ -5846,600 +5900,610 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7"/>
+      <c r="F3" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="G7" s="7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="F7" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="F8" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="F9" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>239</v>
+      <c r="C10" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="D10" s="15"/>
-      <c r="E10" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="7">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="F11" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="10" t="s">
+      <c r="C12" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="D12" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="7">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
+      <c r="E13" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
+      <c r="E14" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7">
+      <c r="E15" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="B16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="F16" s="10" t="s">
+      <c r="C16" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="17"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="E17" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="7">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="17"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="G18" s="7">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="E18" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="17"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="G19" s="7">
-        <v>1</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="E19" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="17"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="17"/>
-      <c r="E20" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="G20" s="7">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="E20" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="17"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="G21" s="7">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="E21" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="17"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="G22" s="7">
-        <v>1</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="E22" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="17"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="G23" s="7">
-        <v>1</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="E23" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="17"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="7">
-        <v>1</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+        <v>234</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="17"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="7">
-        <v>1</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+        <v>236</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="17"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="16"/>
       <c r="E26" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="7">
-        <v>1</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+        <v>238</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="17"/>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="F27" s="10" t="s">
+      <c r="C27" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="7">
-        <v>1</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1</v>
-      </c>
-      <c r="I27" s="7">
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="17"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="G28" s="7">
-        <v>1</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="E28" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="17"/>
-      <c r="B29" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>271</v>
+      <c r="B29" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>275</v>
       </c>
       <c r="D29" s="15"/>
-      <c r="E29" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="F29" s="10" t="s">
+      <c r="E29" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="7">
-        <v>1</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="17"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="16"/>
       <c r="E30" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="7">
-        <v>1</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+        <v>277</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="6">
+        <v>1</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="17"/>
       <c r="B31" s="15" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="7">
-        <v>1</v>
-      </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+        <v>279</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
-      <c r="E32" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="7">
-        <v>1</v>
-      </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="E32" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="6">
+        <v>1</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="F33" s="10" t="s">
+      <c r="E33" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="7">
-        <v>1</v>
-      </c>
-      <c r="H33" s="7">
-        <v>1</v>
-      </c>
-      <c r="I33" s="7">
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="H33" s="6">
+        <v>1</v>
+      </c>
+      <c r="I33" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6448,34 +6512,34 @@
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
-      <c r="E34" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="G34" s="7">
-        <v>1</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+      <c r="E34" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="G35" s="7">
-        <v>1</v>
-      </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7">
+      <c r="E35" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6485,39 +6549,41 @@
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
       <c r="E36" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="7">
-        <v>1</v>
-      </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7">
+        <v>286</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="6">
+        <v>1</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="17"/>
       <c r="B37" s="15" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="F37" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="7">
-        <v>1</v>
-      </c>
-      <c r="H37" s="7">
-        <v>1</v>
-      </c>
-      <c r="I37" s="7">
+      <c r="G37" s="6">
+        <v>1</v>
+      </c>
+      <c r="H37" s="6">
+        <v>1</v>
+      </c>
+      <c r="I37" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6526,67 +6592,67 @@
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="G38" s="7">
-        <v>1</v>
-      </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
+      <c r="E38" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="G38" s="6">
+        <v>1</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="G39" s="7">
-        <v>1</v>
-      </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="E39" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="G39" s="6">
+        <v>1</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
-      <c r="E40" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="G40" s="7">
-        <v>1</v>
-      </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
+      <c r="E40" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="G40" s="6">
+        <v>1</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
-      <c r="E41" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="G41" s="7">
-        <v>1</v>
-      </c>
-      <c r="I41" s="7">
+      <c r="E41" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1</v>
+      </c>
+      <c r="I41" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6595,181 +6661,185 @@
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
-      <c r="E42" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="G42" s="7">
-        <v>1</v>
-      </c>
-      <c r="I42" s="7">
+      <c r="E42" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="G42" s="6">
+        <v>1</v>
+      </c>
+      <c r="I42" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="17"/>
-      <c r="B43" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="G43" s="7">
-        <v>1</v>
-      </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
+      <c r="B43" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="G43" s="6">
+        <v>1</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="17"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
       <c r="D44" s="17"/>
       <c r="E44" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
+        <v>304</v>
+      </c>
+      <c r="F44" s="21"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
       <c r="D45" s="17"/>
-      <c r="E45" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="F45" s="19" t="s">
+      <c r="E45" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="F45" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G45" s="7">
-        <v>1</v>
-      </c>
-      <c r="H45" s="7">
-        <v>1</v>
-      </c>
-      <c r="I45" s="7">
+      <c r="G45" s="6">
+        <v>1</v>
+      </c>
+      <c r="H45" s="6">
+        <v>1</v>
+      </c>
+      <c r="I45" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="17"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
       <c r="D46" s="17"/>
-      <c r="E46" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="G46" s="7">
-        <v>1</v>
-      </c>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
+      <c r="E46" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="G46" s="6">
+        <v>1</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="17"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
       <c r="D47" s="17"/>
-      <c r="E47" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="G47" s="7">
-        <v>1</v>
-      </c>
-      <c r="I47" s="7">
+      <c r="E47" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1</v>
+      </c>
+      <c r="I47" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="17"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
       <c r="D48" s="16"/>
       <c r="E48" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="7">
-        <v>1</v>
-      </c>
-      <c r="I48" s="7">
+        <v>308</v>
+      </c>
+      <c r="F48" s="21"/>
+      <c r="G48" s="6">
+        <v>1</v>
+      </c>
+      <c r="I48" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="17"/>
       <c r="B49" s="15" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="D49" s="15"/>
-      <c r="E49" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="F49" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="F49" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G49" s="7">
-        <v>1</v>
-      </c>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
+      <c r="G49" s="6">
+        <v>1</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
-      <c r="E50" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="G50" s="7">
-        <v>1</v>
-      </c>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
+      <c r="E50" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="G50" s="6">
+        <v>1</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
-      <c r="E51" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="G51" s="7">
-        <v>1</v>
-      </c>
-      <c r="H51" s="7">
-        <v>1</v>
-      </c>
-      <c r="I51" s="7">
+      <c r="E51" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="G51" s="6">
+        <v>1</v>
+      </c>
+      <c r="H51" s="6">
+        <v>1</v>
+      </c>
+      <c r="I51" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6778,82 +6848,167 @@
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
-      <c r="E52" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="G52" s="7">
-        <v>1</v>
-      </c>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
+      <c r="E52" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="G52" s="6">
+        <v>1</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
-      <c r="E53" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="G53" s="7">
-        <v>1</v>
-      </c>
-      <c r="H53" s="7"/>
+      <c r="E53" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="G53" s="6">
+        <v>1</v>
+      </c>
+      <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
-      <c r="E54" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="G54" s="7">
-        <v>1</v>
-      </c>
-      <c r="H54" s="7"/>
+      <c r="E54" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="G54" s="6">
+        <v>1</v>
+      </c>
+      <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="F55" s="19" t="s">
+      <c r="A55" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="F55" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G55" s="7">
-        <v>1</v>
-      </c>
-      <c r="H55" s="7">
-        <v>1</v>
-      </c>
-      <c r="I55" s="7">
-        <v>1</v>
+      <c r="G55" s="6">
+        <v>1</v>
+      </c>
+      <c r="H55" s="6">
+        <v>1</v>
+      </c>
+      <c r="I55" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" ht="36" customHeight="1" spans="1:6">
+      <c r="A56" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" ht="25" customHeight="1" spans="1:6">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="23"/>
+      <c r="E57" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="2"/>
+      <c r="C58" s="23"/>
+      <c r="E58" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="2"/>
+      <c r="C59" s="23"/>
+      <c r="E59" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="2"/>
+      <c r="C61" s="23"/>
+      <c r="E61" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="2"/>
+      <c r="C62" s="23"/>
+      <c r="E62" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="F62" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="38">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:A15"/>
     <mergeCell ref="A16:A54"/>
+    <mergeCell ref="A56:A57"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B15"/>
@@ -6864,6 +7019,8 @@
     <mergeCell ref="B37:B42"/>
     <mergeCell ref="B43:B48"/>
     <mergeCell ref="B49:B54"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B60:B62"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C15"/>
@@ -6874,6 +7031,8 @@
     <mergeCell ref="C37:C42"/>
     <mergeCell ref="C43:C48"/>
     <mergeCell ref="C49:C54"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C60:C62"/>
     <mergeCell ref="D3:D9"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D15"/>
@@ -6896,7 +7055,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
